--- a/03_time_report/Stundenzettel_Hiwis_Nazareth_2507.xlsx
+++ b/03_time_report/Stundenzettel_Hiwis_Nazareth_2507.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hiwi-Stundenzettel" sheetId="1" r:id="rId1"/>
@@ -889,26 +889,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -956,33 +966,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:G15"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1313,16 +1313,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
@@ -1340,31 +1340,31 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="87"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:15" ht="18">
       <c r="A4" s="10"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="40">
         <v>15</v>
       </c>
@@ -1382,12 +1382,12 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
@@ -1405,10 +1405,10 @@
       <c r="E6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="94"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="15" t="s">
         <v>2</v>
       </c>
@@ -1436,10 +1436,10 @@
         <f>IF(C7="","",C7-B7)</f>
         <v>6.25E-2</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="4"/>
       <c r="J7" s="45" t="s">
         <v>46</v>
@@ -1459,8 +1459,8 @@
         <f t="shared" ref="E8:E39" si="0">IF(C8="","",C8-B8)</f>
         <v/>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="4"/>
       <c r="J8" s="45" t="s">
         <v>45</v>
@@ -1480,8 +1480,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="4"/>
       <c r="J9" s="45" t="s">
         <v>48</v>
@@ -1501,8 +1501,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="4"/>
       <c r="J10" s="45" t="s">
         <v>49</v>
@@ -1522,8 +1522,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="4"/>
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
@@ -1545,11 +1545,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="4"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="95" t="s">
+      <c r="K12" s="72" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="57"/>
@@ -1571,11 +1571,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="4"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="96"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="60">
         <v>40</v>
       </c>
@@ -1597,8 +1597,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="4"/>
       <c r="J14" s="45"/>
       <c r="K14" s="63" t="s">
@@ -1626,13 +1626,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="4"/>
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="24"/>
       <c r="O15" s="48"/>
     </row>
@@ -1645,8 +1645,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="4"/>
       <c r="J16" s="27">
         <v>365</v>
@@ -1668,8 +1668,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="4"/>
       <c r="J17" s="27">
         <v>-52</v>
@@ -1691,8 +1691,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="4"/>
       <c r="J18" s="27">
         <v>-52</v>
@@ -1714,8 +1714,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="4"/>
       <c r="J19" s="27">
         <v>-9</v>
@@ -1737,8 +1737,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="4"/>
       <c r="J20" s="28">
         <f>SUM(J16:J19)</f>
@@ -1769,8 +1769,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
       <c r="H21" s="4"/>
       <c r="J21" s="27">
         <v>-30</v>
@@ -1797,8 +1797,8 @@
       <c r="C22" s="3"/>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="4"/>
       <c r="J22" s="32">
         <f>J21/J20*(-1)</f>
@@ -1827,8 +1827,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
       <c r="H23" s="4"/>
       <c r="J23" s="28">
         <f>J20+J21</f>
@@ -1859,8 +1859,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="4"/>
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
@@ -1883,8 +1883,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="4"/>
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
@@ -1907,8 +1907,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
       <c r="H26" s="4"/>
       <c r="J26" s="45"/>
       <c r="K26" s="46"/>
@@ -1926,8 +1926,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
       <c r="H27" s="4"/>
       <c r="J27" s="45"/>
       <c r="K27" s="50" t="s">
@@ -1947,8 +1947,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="4"/>
       <c r="J28" s="45"/>
       <c r="K28" s="46" t="s">
@@ -1973,8 +1973,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="4"/>
       <c r="J29" s="45"/>
       <c r="K29" s="46" t="s">
@@ -1999,8 +1999,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="4"/>
       <c r="J30" s="53"/>
       <c r="K30" s="54" t="s">
@@ -2025,8 +2025,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:15">
@@ -2038,8 +2038,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:10">
@@ -2051,8 +2051,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:10">
@@ -2064,8 +2064,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:10">
@@ -2077,8 +2077,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:10">
@@ -2090,8 +2090,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:10">
@@ -2103,8 +2103,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:10">
@@ -2116,8 +2116,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:10">
@@ -2129,64 +2129,64 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="98"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="75">
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="99">
         <f>SUM(E7:E39)</f>
         <v>6.25E-2</v>
       </c>
-      <c r="F40" s="78" t="s">
+      <c r="F40" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="79"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="20">
         <f>M12</f>
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="78" t="s">
+      <c r="A41" s="76"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="79"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="20">
         <f>H40-H42</f>
         <v>1.8000000000000007</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="73" t="s">
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="74"/>
+      <c r="G42" s="98"/>
       <c r="H42" s="41">
         <f>M24</f>
         <v>13.2</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="101">
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="79">
         <f>(E40*60*24)/60</f>
         <v>1.5</v>
       </c>
@@ -2203,30 +2203,30 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="99" t="s">
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="100"/>
+      <c r="G44" s="78"/>
       <c r="H44" s="41">
         <f>E43+H43</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
-      <c r="A45" s="98"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="99" t="s">
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="100"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="41">
         <f>H44-H42</f>
         <v>-11.7</v>
@@ -2323,6 +2323,39 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="49">
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="F26:G26"/>
@@ -2339,39 +2372,6 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="E43:E45"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
